--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/Payments.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/Payments.xlsx
@@ -2,29 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases Login&amp;Menu" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCases Document1" sheetId="3" r:id="rId3"/>
-    <sheet name="TestCases Document2" sheetId="4" r:id="rId4"/>
-    <sheet name="TestCases Document3" sheetId="10" r:id="rId5"/>
-    <sheet name="TestCases Document4" sheetId="11" r:id="rId6"/>
-    <sheet name="TestCases Document5" sheetId="12" r:id="rId7"/>
-    <sheet name="TestCases Document6" sheetId="13" r:id="rId8"/>
-    <sheet name="TestCases Document7" sheetId="5" r:id="rId9"/>
-    <sheet name="TestCases Document8" sheetId="8" r:id="rId10"/>
-    <sheet name="TestCases VoucherClose" sheetId="7" r:id="rId11"/>
+    <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases Login&amp;Menu" r:id="rId2" sheetId="2"/>
+    <sheet name="TestCases Document1" r:id="rId3" sheetId="3"/>
+    <sheet name="TestCases Document2" r:id="rId4" sheetId="4"/>
+    <sheet name="TestCases Document3" r:id="rId5" sheetId="10"/>
+    <sheet name="TestCases Document4" r:id="rId6" sheetId="11"/>
+    <sheet name="TestCases Document5" r:id="rId7" sheetId="12"/>
+    <sheet name="TestCases Document6" r:id="rId8" sheetId="13"/>
+    <sheet name="TestCases Document7" r:id="rId9" sheetId="5"/>
+    <sheet name="TestCases Document8" r:id="rId10" sheetId="8"/>
+    <sheet name="TestCases VoucherClose" r:id="rId11" sheetId="7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="222">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -714,26 +714,36 @@
     <t>1-PurVou:1,15,1-PurVou:2,5,2-PurVou:2,0</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Controls marked with arrow mark, require Values
 Main -&gt; CashBankAC</t>
   </si>
   <si>
-    <t>AUTO11018</t>
-  </si>
-  <si>
     <t>Blocked</t>
   </si>
   <si>
     <t>Voucher saved successfully</t>
+  </si>
+  <si>
+    <t>AUTO040119</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Adjusted amount is not equal to total amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,7 +792,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="1498">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +976,1371 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -975,17 +2350,5927 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1033,124 +8318,851 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="800">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="655" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="657" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="659" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="661" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="663" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="665" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="667" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="669" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="671" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="673" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="675" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="677" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="679" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="681" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="683" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="685" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="687" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="689" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="691" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="693" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="695" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="697" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="699" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="701" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="703" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="705" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="707" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="709" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="711" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="713" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="715" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="717" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="719" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="721" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="723" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="725" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="751" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="753" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="755" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="757" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="759" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="761" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="763" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="765" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="767" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="769" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="771" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="773" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="775" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="777" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="779" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="781" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="783" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="785" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="787" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="799" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="801" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="803" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="805" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="807" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="809" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="815" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="817" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="819" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="821" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="823" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="825" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="827" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="829" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="831" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="833" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="835" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="837" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="839" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="841" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="843" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="845" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="847" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="849" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="851" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="853" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="855" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="857" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="859" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="861" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="863" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="865" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="867" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="869" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="871" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="873" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="875" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="877" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="879" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="881" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="883" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="885" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="887" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="889" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="891" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="893" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="895" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="897" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="899" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="901" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="903" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="905" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="907" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="909" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="911" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="913" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="915" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="917" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="919" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="921" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="923" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="925" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="927" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="929" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="931" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="933" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="935" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="937" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="939" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="941" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="943" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="945" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="947" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="949" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="951" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="953" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="955" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="957" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="959" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="961" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="963" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="965" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="967" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="969" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="971" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="973" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="975" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="977" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="979" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="981" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="983" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="985" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="987" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="989" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="991" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="993" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="995" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="997" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="999" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1001" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1003" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1005" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1007" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1009" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1011" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1013" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1015" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1017" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1019" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1021" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1023" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1025" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1027" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1029" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1031" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1033" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1035" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1037" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1039" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1041" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1043" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1045" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1047" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1049" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1051" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1053" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1055" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1057" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1059" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1061" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1063" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1065" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1067" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1069" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1071" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1073" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1075" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1077" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1079" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1081" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1083" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1085" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1087" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1089" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1091" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1093" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1095" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1097" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1099" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="1495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1497" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF273A99"/>
@@ -1170,10 +9182,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1331,7 +9343,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1340,13 +9352,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1356,7 +9368,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1365,7 +9377,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1374,7 +9386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1384,12 +9396,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1420,7 +9432,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1439,7 +9451,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1451,19 +9463,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="91" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="91.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +9503,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,10 +9514,10 @@
         <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>210</v>
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +9530,7 @@
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="765" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1532,7 +9544,7 @@
       <c r="C5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="768" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1540,38 +9552,38 @@
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +9596,7 @@
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="772" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1598,11 +9610,11 @@
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="776" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1612,7 +9624,7 @@
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="780" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1626,7 +9638,7 @@
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="784" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1640,11 +9652,11 @@
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="788" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>103</v>
       </c>
@@ -1654,7 +9666,7 @@
       <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="792" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1668,8 +9680,8 @@
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="67" t="s">
-        <v>214</v>
+      <c r="D15" s="795" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,7 +9694,7 @@
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="797" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1696,7 +9708,7 @@
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" t="s" s="799">
         <v>210</v>
       </c>
     </row>
@@ -1705,29 +9717,29 @@
     <mergeCell ref="B6:B8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'TestCases Login&amp;Menu'!A2" display="Company Creation"/>
-    <hyperlink ref="B3" location="'TestCases Login&amp;Menu'!A3:A4" display="Login &amp; Leftpanel Menu display"/>
-    <hyperlink ref="B4" location="'TestCases Login&amp;Menu'!A5:A6" display="Payments Voucher Menu selection &amp; display of  its dashboard icons "/>
-    <hyperlink ref="B5" location="'TestCases Login&amp;Menu'!A7:A8" display="Payments Voucher New click &amp; display of its dashboard icons"/>
-    <hyperlink ref="B6:B8" location="'TestCases Login&amp;Menu'!A9:A11" display="Getting of all Header, Body &amp; Footer label names of Payments Voucher"/>
-    <hyperlink ref="B9" location="'TestCases Document1'!A2:A8" display="Payments Voucher creation with valid data by providing Save Method as &quot;Pick&quot;"/>
-    <hyperlink ref="B10" location="'TestCases Document2'!A2:A8" display="Payments Voucher creation with valid data by providing Save Method as &quot;New Reference&quot;"/>
-    <hyperlink ref="B11" location="'TestCases Document3'!A2:A8" display="Payments Voucher creation with valid data by Adjusting single Reference against multiple Pending Bills"/>
-    <hyperlink ref="B12" location="'TestCases Document4'!A2:A8" display="Payments Voucher creation with valid data by Adjusting multiple References against  Pending Bills "/>
-    <hyperlink ref="B13" location="'TestCases Document5'!A2:A8" display="Payments Voucher creation with valid data by Adjusting Bills on FIFO order"/>
-    <hyperlink ref="B14" location="'TestCases Document6'!A2:A8" display="Payments Voucher creation with valid data by partially Adjusting Bills against Pending Bills and against New References"/>
-    <hyperlink ref="B15" location="'TestCases Document7'!A2:A8" display="Payments Voucher validation by missing mandatory fields of the Header"/>
-    <hyperlink ref="B16" location="'TestCases Document8'!A2:A8" display="Payments Voucher validation by missing mandatory fields of the Body grid"/>
-    <hyperlink ref="B17" location="'TestCases VoucherClose'!A2" display="Payments Voucher Home Page Close"/>
+    <hyperlink display="Company Creation" location="'TestCases Login&amp;Menu'!A2" ref="B2"/>
+    <hyperlink display="Login &amp; Leftpanel Menu display" location="'TestCases Login&amp;Menu'!A3:A4" ref="B3"/>
+    <hyperlink display="Payments Voucher Menu selection &amp; display of  its dashboard icons " location="'TestCases Login&amp;Menu'!A5:A6" ref="B4"/>
+    <hyperlink display="Payments Voucher New click &amp; display of its dashboard icons" location="'TestCases Login&amp;Menu'!A7:A8" ref="B5"/>
+    <hyperlink display="Getting of all Header, Body &amp; Footer label names of Payments Voucher" location="'TestCases Login&amp;Menu'!A9:A11" ref="B6:B8"/>
+    <hyperlink display="Payments Voucher creation with valid data by providing Save Method as &quot;Pick&quot;" location="'TestCases Document1'!A2:A8" ref="B9"/>
+    <hyperlink display="Payments Voucher creation with valid data by providing Save Method as &quot;New Reference&quot;" location="'TestCases Document2'!A2:A8" ref="B10"/>
+    <hyperlink display="Payments Voucher creation with valid data by Adjusting single Reference against multiple Pending Bills" location="'TestCases Document3'!A2:A8" ref="B11"/>
+    <hyperlink display="Payments Voucher creation with valid data by Adjusting multiple References against  Pending Bills " location="'TestCases Document4'!A2:A8" ref="B12"/>
+    <hyperlink display="Payments Voucher creation with valid data by Adjusting Bills on FIFO order" location="'TestCases Document5'!A2:A8" ref="B13"/>
+    <hyperlink display="Payments Voucher creation with valid data by partially Adjusting Bills against Pending Bills and against New References" location="'TestCases Document6'!A2:A8" ref="B14"/>
+    <hyperlink display="Payments Voucher validation by missing mandatory fields of the Header" location="'TestCases Document7'!A2:A8" ref="B15"/>
+    <hyperlink display="Payments Voucher validation by missing mandatory fields of the Body grid" location="'TestCases Document8'!A2:A8" ref="B16"/>
+    <hyperlink display="Payments Voucher Home Page Close" location="'TestCases VoucherClose'!A2" ref="B17"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J16"/>
@@ -1735,16 +9747,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1787,7 +9799,7 @@
       <c r="C2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="796" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -1925,7 +9937,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>176</v>
       </c>
@@ -1973,7 +9985,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>149</v>
@@ -2087,7 +10099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>150</v>
@@ -2106,13 +10118,13 @@
       <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2120,11 +10132,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="82" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="82.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2154,7 +10166,7 @@
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="798" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -2162,27 +10174,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="41.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="26.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2260,12 +10272,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -2291,7 +10303,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -2301,7 +10313,7 @@
       <c r="C5" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="763" t="s">
         <v>210</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -2323,7 +10335,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -2333,7 +10345,7 @@
       <c r="C6" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="764" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -2347,7 +10359,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -2357,7 +10369,7 @@
       <c r="C7" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="766" t="s">
         <v>210</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2369,7 +10381,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -2379,7 +10391,7 @@
       <c r="C8" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="767" t="s">
         <v>210</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -2474,32 +10486,32 @@
       <c r="J11" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2532,7 +10544,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -2542,7 +10554,7 @@
       <c r="C2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="771" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2556,7 +10568,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -2602,7 +10614,7 @@
       <c r="C4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="769" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -2648,7 +10660,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
@@ -2658,7 +10670,7 @@
       <c r="C6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="770" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2700,7 +10712,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -2718,7 +10730,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -2748,7 +10760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>149</v>
@@ -2836,7 +10848,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
@@ -2864,7 +10876,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>150</v>
@@ -2905,14 +10917,14 @@
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -2920,16 +10932,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="27" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2962,7 +10974,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -2972,7 +10984,7 @@
       <c r="C2" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="775" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2986,7 +10998,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -3032,7 +11044,7 @@
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="773" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -3052,7 +11064,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +11090,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -3088,7 +11100,7 @@
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="774" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3108,7 +11120,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +11142,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="8" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>89</v>
       </c>
@@ -3178,7 +11190,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>149</v>
@@ -3290,7 +11302,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>150</v>
@@ -3329,14 +11341,14 @@
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -3344,16 +11356,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3386,7 +11398,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -3396,7 +11408,7 @@
       <c r="C2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="779" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -3412,7 +11424,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -3458,7 +11470,7 @@
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="777" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -3504,7 +11516,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
@@ -3514,7 +11526,7 @@
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="778" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3552,7 +11564,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -3600,7 +11612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>149</v>
@@ -3712,7 +11724,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>150</v>
@@ -3735,13 +11747,13 @@
       <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -3749,16 +11761,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3791,7 +11803,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
@@ -3801,7 +11813,7 @@
       <c r="C2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="783" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -3817,7 +11829,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -3863,7 +11875,7 @@
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="781" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -3909,7 +11921,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
@@ -3919,7 +11931,7 @@
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="782" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3961,7 +11973,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -4009,7 +12021,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>149</v>
@@ -4121,7 +12133,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>150</v>
@@ -4160,13 +12172,13 @@
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -4174,16 +12186,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4216,7 +12228,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
@@ -4226,7 +12238,7 @@
       <c r="C2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="787" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -4240,7 +12252,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -4286,7 +12298,7 @@
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="785" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -4332,7 +12344,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>116</v>
       </c>
@@ -4342,7 +12354,7 @@
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="786" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -4384,7 +12396,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>117</v>
       </c>
@@ -4432,7 +12444,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>149</v>
@@ -4544,7 +12556,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>150</v>
@@ -4583,14 +12595,14 @@
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -4598,16 +12610,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4640,7 +12652,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
@@ -4650,7 +12662,7 @@
       <c r="C2" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="791" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -4666,7 +12678,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -4712,7 +12724,7 @@
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="789" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -4758,7 +12770,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>169</v>
       </c>
@@ -4768,7 +12780,7 @@
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="790" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -4815,7 +12827,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>170</v>
       </c>
@@ -4863,7 +12875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>149</v>
@@ -4975,7 +12987,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>150</v>
@@ -5030,30 +13042,30 @@
       <c r="J18" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5086,7 +13098,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -5096,8 +13108,8 @@
       <c r="C2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>214</v>
+      <c r="D2" s="794" t="s">
+        <v>210</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -5107,14 +13119,14 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -5146,7 +13158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -5156,7 +13168,7 @@
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="793" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -5202,7 +13214,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>172</v>
       </c>
@@ -5242,7 +13254,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>173</v>
       </c>
@@ -5290,7 +13302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>149</v>
@@ -5404,7 +13416,7 @@
       </c>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>150</v>
@@ -5427,6 +13439,6 @@
       <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>